--- a/tests/org.eclipse.epsilon.emc.cellsheet.excel.test/resources/TestFile.xlsx
+++ b/tests/org.eclipse.epsilon.emc.cellsheet.excel.test/resources/TestFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanco/ws-epsilon/emc-cellsheet/tests/org.eclipse.epsilon.emc.cellsheet.excel.test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE540112-9EB3-4445-B32A-2B669AA98722}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C141E9-A269-5B45-98BE-0E1AAD1CB07E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{89D4AF0C-424F-4474-A077-5A7CAA947044}"/>
   </bookViews>
@@ -466,7 +466,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
